--- a/docs/Part2-API-TestDesign.xlsx
+++ b/docs/Part2-API-TestDesign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viet/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viet/Desktops/qa-automation-cypress/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B24D15-8437-E44C-8ED1-26E4D6732B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C71D7F5-4080-2E49-9B6D-D1D43B5D8313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,14 +92,6 @@
     <t>API-02</t>
   </si>
   <si>
-    <t>Sample GET request: https://en.wikipedia.org/w/api.php?action=query&amp;format=json&amp;list=search&amp;srsearch=Software Testing&amp;sroffset=10&amp;formatversion=2
-Verification Points:
-- HTTP code: 200
-- "batchcomplete": true
-- "sroffset": &lt;sroffset&gt; + 10
-- response.body.search.title|snippet contains partial keyword string</t>
-  </si>
-  <si>
     <t>Verify no search result is returned by GET request with invalid srsearch param</t>
   </si>
   <si>
@@ -433,6 +425,37 @@
                 "snippet": "&lt;span class=\"searchmatch\"&gt;Software&lt;/span&gt; &lt;span class=\"searchmatch\"&gt;testing&lt;/span&gt; is the act of examining the artifacts and the behavior of the &lt;span class=\"searchmatch\"&gt;software&lt;/span&gt; under &lt;span class=\"searchmatch\"&gt;test&lt;/span&gt; by validation and verification. &lt;span class=\"searchmatch\"&gt;Software&lt;/span&gt; &lt;span class=\"searchmatch\"&gt;testing&lt;/span&gt; can",
                 "timestamp": "2024-01-09T08:43:20Z"
             },....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample GET request: https://en.wikipedia.org/w/api.php?action=query&amp;format=json&amp;list=search&amp;srsearch=Software Testing&amp;sroffset=10&amp;formatversion=2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verification Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- HTTP code: 200
+- "batchcomplete": true
+- "sroffset": &lt;sroffset&gt; + 10
+- response.body.search.title|snippet contains partial keyword string</t>
     </r>
   </si>
 </sst>
@@ -961,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
@@ -1042,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -1059,17 +1082,17 @@
     </row>
     <row r="4" spans="1:11" ht="395" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
@@ -1083,17 +1106,17 @@
     </row>
     <row r="5" spans="1:11" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
@@ -1107,17 +1130,17 @@
     </row>
     <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
